--- a/COVID_Training_Data.xlsx
+++ b/COVID_Training_Data.xlsx
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>н</t>
-  </si>
-  <si>
-    <t>ТШХпосле</t>
   </si>
   <si>
     <t>Возраст</t>
@@ -298,6 +295,9 @@
   <si>
     <t>Стресс</t>
   </si>
+  <si>
+    <t>Class15</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -373,6 +373,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -692,7 +695,7 @@
   <dimension ref="A1:CF66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CG1" sqref="CG1:CG1048576"/>
+      <selection activeCell="CF1" sqref="CF1:CF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +724,6 @@
     <col min="69" max="69" width="10.5703125" customWidth="1"/>
     <col min="75" max="75" width="11.7109375" customWidth="1"/>
     <col min="79" max="79" width="12.5703125" customWidth="1"/>
-    <col min="84" max="84" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
@@ -729,253 +731,253 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BX1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="CE1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CF1" s="7" t="s">
-        <v>6</v>
+      <c r="CF1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
@@ -1158,7 +1160,7 @@
         <v>9.3548387096774199</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF2" s="4" t="s">
         <v>4</v>
@@ -1233,8 +1235,8 @@
       <c r="CE2" s="4">
         <v>300</v>
       </c>
-      <c r="CF2" s="4">
-        <v>410</v>
+      <c r="CF2" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
@@ -1417,7 +1419,7 @@
         <v>6.8062827225130889</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF3" s="4" t="s">
         <v>5</v>
@@ -1492,8 +1494,8 @@
       <c r="CE3" s="4">
         <v>280</v>
       </c>
-      <c r="CF3" s="4">
-        <v>376</v>
+      <c r="CF3" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
@@ -1674,7 +1676,7 @@
         <v>6.5463917525773194</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF4" s="4" t="s">
         <v>4</v>
@@ -1749,8 +1751,8 @@
       <c r="CE4" s="4">
         <v>300</v>
       </c>
-      <c r="CF4" s="4">
-        <v>350</v>
+      <c r="CF4" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
@@ -1933,7 +1935,7 @@
         <v>6.0810810810810807</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF5" s="4" t="s">
         <v>5</v>
@@ -2008,8 +2010,8 @@
       <c r="CE5" s="4">
         <v>300</v>
       </c>
-      <c r="CF5" s="4">
-        <v>400</v>
+      <c r="CF5" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
@@ -2192,7 +2194,7 @@
         <v>5.7065217391304346</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF6" s="4" t="s">
         <v>5</v>
@@ -2267,8 +2269,8 @@
       <c r="CE6" s="4">
         <v>300</v>
       </c>
-      <c r="CF6" s="4">
-        <v>400</v>
+      <c r="CF6" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
@@ -2451,7 +2453,7 @@
         <v>6.0386473429951693</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF7" s="4" t="s">
         <v>5</v>
@@ -2526,8 +2528,8 @@
       <c r="CE7" s="4">
         <v>350</v>
       </c>
-      <c r="CF7" s="4">
-        <v>390</v>
+      <c r="CF7" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
@@ -2710,7 +2712,7 @@
         <v>7.6271186440677967</v>
       </c>
       <c r="BE8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BF8" s="4" t="s">
         <v>5</v>
@@ -2785,8 +2787,8 @@
       <c r="CE8" s="4">
         <v>300</v>
       </c>
-      <c r="CF8" s="4">
-        <v>350</v>
+      <c r="CF8" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
@@ -2969,7 +2971,7 @@
         <v>5.3719008264462813</v>
       </c>
       <c r="BE9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF9" s="4" t="s">
         <v>5</v>
@@ -3044,8 +3046,8 @@
       <c r="CE9" s="4">
         <v>320</v>
       </c>
-      <c r="CF9" s="4">
-        <v>350</v>
+      <c r="CF9" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
@@ -3228,7 +3230,7 @@
         <v>4.1958041958041958</v>
       </c>
       <c r="BE10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF10" s="4" t="s">
         <v>5</v>
@@ -3303,8 +3305,8 @@
       <c r="CE10" s="4">
         <v>280</v>
       </c>
-      <c r="CF10" s="4">
-        <v>350</v>
+      <c r="CF10" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
@@ -3487,7 +3489,7 @@
         <v>5.3639846743295019</v>
       </c>
       <c r="BE11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BF11" s="4" t="s">
         <v>5</v>
@@ -3562,8 +3564,8 @@
       <c r="CE11" s="4">
         <v>320</v>
       </c>
-      <c r="CF11" s="4">
-        <v>396</v>
+      <c r="CF11" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
@@ -3746,7 +3748,7 @@
         <v>6.7164179104477615</v>
       </c>
       <c r="BE12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF12" s="4" t="s">
         <v>4</v>
@@ -3821,8 +3823,8 @@
       <c r="CE12" s="4">
         <v>320</v>
       </c>
-      <c r="CF12" s="4">
-        <v>410</v>
+      <c r="CF12" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
@@ -4005,7 +4007,7 @@
         <v>5.753968253968254</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF13" s="4" t="s">
         <v>5</v>
@@ -4080,8 +4082,8 @@
       <c r="CE13" s="4">
         <v>300</v>
       </c>
-      <c r="CF13" s="4">
-        <v>350</v>
+      <c r="CF13" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
@@ -4264,7 +4266,7 @@
         <v>5.9330143540669855</v>
       </c>
       <c r="BE14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF14" s="4" t="s">
         <v>5</v>
@@ -4343,8 +4345,8 @@
       <c r="CE14" s="4">
         <v>300</v>
       </c>
-      <c r="CF14" s="4">
-        <v>380</v>
+      <c r="CF14" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
@@ -4527,7 +4529,7 @@
         <v>10.661764705882353</v>
       </c>
       <c r="BE15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF15" s="4" t="s">
         <v>5</v>
@@ -4602,8 +4604,8 @@
       <c r="CE15" s="4">
         <v>220</v>
       </c>
-      <c r="CF15" s="4">
-        <v>250</v>
+      <c r="CF15" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
@@ -4786,7 +4788,7 @@
         <v>5.9808612440191391</v>
       </c>
       <c r="BE16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF16" s="4" t="s">
         <v>4</v>
@@ -4867,8 +4869,8 @@
       <c r="CE16" s="4">
         <v>300</v>
       </c>
-      <c r="CF16" s="4">
-        <v>360</v>
+      <c r="CF16" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
@@ -5051,7 +5053,7 @@
         <v>4.8581560283687946</v>
       </c>
       <c r="BE17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF17" s="4" t="s">
         <v>4</v>
@@ -5132,8 +5134,8 @@
       <c r="CE17" s="4">
         <v>400</v>
       </c>
-      <c r="CF17" s="4">
-        <v>420</v>
+      <c r="CF17" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
@@ -5316,7 +5318,7 @@
         <v>3.9735099337748343</v>
       </c>
       <c r="BE18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF18" s="4" t="s">
         <v>5</v>
@@ -5397,8 +5399,8 @@
       <c r="CE18" s="4">
         <v>300</v>
       </c>
-      <c r="CF18" s="4">
-        <v>380</v>
+      <c r="CF18" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
@@ -5581,7 +5583,7 @@
         <v>5.2301255230125525</v>
       </c>
       <c r="BE19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF19" s="4" t="s">
         <v>5</v>
@@ -5662,8 +5664,8 @@
       <c r="CE19" s="4">
         <v>365</v>
       </c>
-      <c r="CF19" s="4">
-        <v>412</v>
+      <c r="CF19" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
@@ -5846,7 +5848,7 @@
         <v>4.3014705882352944</v>
       </c>
       <c r="BE20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF20" s="4" t="s">
         <v>5</v>
@@ -5927,8 +5929,8 @@
       <c r="CE20" s="4">
         <v>420</v>
       </c>
-      <c r="CF20" s="4">
-        <v>560</v>
+      <c r="CF20" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
@@ -6111,7 +6113,7 @@
         <v>4.9618320610687023</v>
       </c>
       <c r="BE21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF21" s="4" t="s">
         <v>5</v>
@@ -6192,8 +6194,8 @@
       <c r="CE21" s="4">
         <v>328</v>
       </c>
-      <c r="CF21" s="4">
-        <v>328</v>
+      <c r="CF21" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
@@ -6376,7 +6378,7 @@
         <v>9.7345132743362832</v>
       </c>
       <c r="BE22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF22" s="4" t="s">
         <v>5</v>
@@ -6457,8 +6459,8 @@
       <c r="CE22" s="4">
         <v>260</v>
       </c>
-      <c r="CF22" s="4">
-        <v>389</v>
+      <c r="CF22" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
@@ -6641,7 +6643,7 @@
         <v>4.954954954954955</v>
       </c>
       <c r="BE23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF23" s="4" t="s">
         <v>4</v>
@@ -6722,8 +6724,8 @@
       <c r="CE23" s="4">
         <v>320</v>
       </c>
-      <c r="CF23" s="4">
-        <v>405</v>
+      <c r="CF23" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
@@ -6906,7 +6908,7 @@
         <v>6.0773480662983426</v>
       </c>
       <c r="BE24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF24" s="4" t="s">
         <v>5</v>
@@ -6987,8 +6989,8 @@
       <c r="CE24" s="4">
         <v>250</v>
       </c>
-      <c r="CF24" s="4">
-        <v>280</v>
+      <c r="CF24" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
@@ -7171,7 +7173,7 @@
         <v>6.9060773480662982</v>
       </c>
       <c r="BE25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF25" s="4" t="s">
         <v>4</v>
@@ -7252,8 +7254,8 @@
       <c r="CE25" s="4">
         <v>380</v>
       </c>
-      <c r="CF25" s="4">
-        <v>450</v>
+      <c r="CF25" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
@@ -7436,7 +7438,7 @@
         <v>4.9618320610687023</v>
       </c>
       <c r="BE26" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF26" s="4" t="s">
         <v>5</v>
@@ -7517,8 +7519,8 @@
       <c r="CE26" s="4">
         <v>300</v>
       </c>
-      <c r="CF26" s="4">
-        <v>360</v>
+      <c r="CF26" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
@@ -7701,7 +7703,7 @@
         <v>6.1538461538461542</v>
       </c>
       <c r="BE27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF27" s="4" t="s">
         <v>4</v>
@@ -7782,8 +7784,8 @@
       <c r="CE27" s="4">
         <v>450</v>
       </c>
-      <c r="CF27" s="4">
-        <v>450</v>
+      <c r="CF27" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
@@ -7966,7 +7968,7 @@
         <v>5</v>
       </c>
       <c r="BE28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF28" s="4" t="s">
         <v>4</v>
@@ -8047,8 +8049,8 @@
       <c r="CE28" s="4">
         <v>340</v>
       </c>
-      <c r="CF28" s="4">
-        <v>500</v>
+      <c r="CF28" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
@@ -8231,7 +8233,7 @@
         <v>5.2631578947368425</v>
       </c>
       <c r="BE29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BF29" s="4" t="s">
         <v>4</v>
@@ -8312,8 +8314,8 @@
       <c r="CE29" s="4">
         <v>400</v>
       </c>
-      <c r="CF29" s="4">
-        <v>460</v>
+      <c r="CF29" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
@@ -8496,7 +8498,7 @@
         <v>5.5319148936170217</v>
       </c>
       <c r="BE30" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF30" s="4" t="s">
         <v>5</v>
@@ -8572,8 +8574,8 @@
       <c r="CE30" s="4">
         <v>400</v>
       </c>
-      <c r="CF30" s="4">
-        <v>460</v>
+      <c r="CF30" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
@@ -8756,7 +8758,7 @@
         <v>5</v>
       </c>
       <c r="BE31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF31" s="4" t="s">
         <v>4</v>
@@ -8836,8 +8838,8 @@
       <c r="CE31" s="4">
         <v>360</v>
       </c>
-      <c r="CF31" s="4">
-        <v>500</v>
+      <c r="CF31" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
@@ -9020,7 +9022,7 @@
         <v>4.9122807017543861</v>
       </c>
       <c r="BE32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF32" s="4" t="s">
         <v>5</v>
@@ -9098,8 +9100,8 @@
       <c r="CE32" s="4">
         <v>460</v>
       </c>
-      <c r="CF32" s="4">
-        <v>500</v>
+      <c r="CF32" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
@@ -9282,7 +9284,7 @@
         <v>4.8701298701298699</v>
       </c>
       <c r="BE33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF33" s="4" t="s">
         <v>5</v>
@@ -9358,8 +9360,8 @@
       <c r="CE33" s="4">
         <v>360</v>
       </c>
-      <c r="CF33" s="4">
-        <v>550</v>
+      <c r="CF33" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
@@ -9542,7 +9544,7 @@
         <v>4.6325878594249197</v>
       </c>
       <c r="BE34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF34" s="4" t="s">
         <v>4</v>
@@ -9618,8 +9620,8 @@
       <c r="CE34" s="4">
         <v>300</v>
       </c>
-      <c r="CF34" s="4">
-        <v>360</v>
+      <c r="CF34" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.25">
@@ -9802,7 +9804,7 @@
         <v>8.8524590163934427</v>
       </c>
       <c r="BE35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF35" s="4" t="s">
         <v>4</v>
@@ -9883,8 +9885,8 @@
       <c r="CE35" s="4">
         <v>260</v>
       </c>
-      <c r="CF35" s="4">
-        <v>430</v>
+      <c r="CF35" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
@@ -10067,7 +10069,7 @@
         <v>5.3511705685618729</v>
       </c>
       <c r="BE36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF36" s="4" t="s">
         <v>5</v>
@@ -10148,8 +10150,8 @@
       <c r="CE36" s="4">
         <v>285</v>
       </c>
-      <c r="CF36" s="4">
-        <v>400</v>
+      <c r="CF36" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
@@ -10332,7 +10334,7 @@
         <v>5.333333333333333</v>
       </c>
       <c r="BE37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF37" s="4" t="s">
         <v>4</v>
@@ -10413,8 +10415,8 @@
       <c r="CE37" s="4">
         <v>300</v>
       </c>
-      <c r="CF37" s="4">
-        <v>550</v>
+      <c r="CF37" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
@@ -10597,7 +10599,7 @@
         <v>4.529616724738676</v>
       </c>
       <c r="BE38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF38" s="4" t="s">
         <v>4</v>
@@ -10678,8 +10680,8 @@
       <c r="CE38" s="4">
         <v>340</v>
       </c>
-      <c r="CF38" s="4">
-        <v>550</v>
+      <c r="CF38" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
@@ -10862,7 +10864,7 @@
         <v>4.838709677419355</v>
       </c>
       <c r="BE39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF39" s="4" t="s">
         <v>5</v>
@@ -10943,8 +10945,8 @@
       <c r="CE39" s="4">
         <v>380</v>
       </c>
-      <c r="CF39" s="4">
-        <v>520</v>
+      <c r="CF39" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
@@ -11127,7 +11129,7 @@
         <v>5.3299492385786804</v>
       </c>
       <c r="BE40" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF40" s="4" t="s">
         <v>4</v>
@@ -11208,8 +11210,8 @@
       <c r="CE40" s="4">
         <v>300</v>
       </c>
-      <c r="CF40" s="4">
-        <v>400</v>
+      <c r="CF40" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
@@ -11392,7 +11394,7 @@
         <v>4.4444444444444446</v>
       </c>
       <c r="BE41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BF41" s="4" t="s">
         <v>4</v>
@@ -11473,8 +11475,8 @@
       <c r="CE41" s="4">
         <v>320</v>
       </c>
-      <c r="CF41" s="4">
-        <v>400</v>
+      <c r="CF41" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
@@ -11657,7 +11659,7 @@
         <v>5.4216867469879517</v>
       </c>
       <c r="BE42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF42" s="4" t="s">
         <v>5</v>
@@ -11738,8 +11740,8 @@
       <c r="CE42" s="4">
         <v>400</v>
       </c>
-      <c r="CF42" s="4">
-        <v>450</v>
+      <c r="CF42" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
@@ -11922,7 +11924,7 @@
         <v>6.8372093023255811</v>
       </c>
       <c r="BE43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BF43" s="4" t="s">
         <v>5</v>
@@ -12003,8 +12005,8 @@
       <c r="CE43" s="4">
         <v>230</v>
       </c>
-      <c r="CF43" s="4">
-        <v>250</v>
+      <c r="CF43" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:84" x14ac:dyDescent="0.25">
@@ -12187,7 +12189,7 @@
         <v>6.4285714285714288</v>
       </c>
       <c r="BE44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF44" s="4" t="s">
         <v>4</v>
@@ -12267,8 +12269,8 @@
       <c r="CE44" s="4">
         <v>380</v>
       </c>
-      <c r="CF44" s="4">
-        <v>400</v>
+      <c r="CF44" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
@@ -12451,7 +12453,7 @@
         <v>6.3535911602209945</v>
       </c>
       <c r="BE45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF45" s="4" t="s">
         <v>5</v>
@@ -12531,8 +12533,8 @@
       <c r="CE45" s="4">
         <v>350</v>
       </c>
-      <c r="CF45" s="4">
-        <v>400</v>
+      <c r="CF45" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
@@ -12715,7 +12717,7 @@
         <v>7.3991031390134525</v>
       </c>
       <c r="BE46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF46" s="4" t="s">
         <v>4</v>
@@ -12795,8 +12797,8 @@
       <c r="CE46" s="4">
         <v>380</v>
       </c>
-      <c r="CF46" s="4">
-        <v>400</v>
+      <c r="CF46" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
@@ -12979,7 +12981,7 @@
         <v>5.208333333333333</v>
       </c>
       <c r="BE47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF47" s="4" t="s">
         <v>5</v>
@@ -13059,8 +13061,8 @@
       <c r="CE47" s="4">
         <v>350</v>
       </c>
-      <c r="CF47" s="4">
-        <v>500</v>
+      <c r="CF47" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
@@ -13243,7 +13245,7 @@
         <v>5.8</v>
       </c>
       <c r="BE48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BF48" s="4" t="s">
         <v>5</v>
@@ -13323,8 +13325,8 @@
       <c r="CE48" s="4">
         <v>400</v>
       </c>
-      <c r="CF48" s="4">
-        <v>550</v>
+      <c r="CF48" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:84" x14ac:dyDescent="0.25">
@@ -13507,7 +13509,7 @@
         <v>7.731958762886598</v>
       </c>
       <c r="BE49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF49" s="4" t="s">
         <v>4</v>
@@ -13587,8 +13589,8 @@
       <c r="CE49" s="4">
         <v>350</v>
       </c>
-      <c r="CF49" s="4">
-        <v>460</v>
+      <c r="CF49" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:84" x14ac:dyDescent="0.25">
@@ -13771,7 +13773,7 @@
         <v>4.6296296296296298</v>
       </c>
       <c r="BE50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF50" s="4" t="s">
         <v>4</v>
@@ -13851,8 +13853,8 @@
       <c r="CE50" s="4">
         <v>350</v>
       </c>
-      <c r="CF50" s="4">
-        <v>450</v>
+      <c r="CF50" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:84" x14ac:dyDescent="0.25">
@@ -14035,7 +14037,7 @@
         <v>6.1965811965811968</v>
       </c>
       <c r="BE51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF51" s="4" t="s">
         <v>4</v>
@@ -14116,8 +14118,8 @@
       <c r="CE51" s="4">
         <v>360</v>
       </c>
-      <c r="CF51" s="4">
-        <v>420</v>
+      <c r="CF51" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:84" x14ac:dyDescent="0.25">
@@ -14300,7 +14302,7 @@
         <v>6.6298342541436464</v>
       </c>
       <c r="BE52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BF52" s="4" t="s">
         <v>5</v>
@@ -14380,8 +14382,8 @@
       <c r="CE52" s="4">
         <v>420</v>
       </c>
-      <c r="CF52" s="4">
-        <v>460</v>
+      <c r="CF52" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:84" x14ac:dyDescent="0.25">
@@ -14564,7 +14566,7 @@
         <v>7.9881656804733732</v>
       </c>
       <c r="BE53" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF53" s="4" t="s">
         <v>4</v>
@@ -14644,8 +14646,8 @@
       <c r="CE53" s="4">
         <v>360</v>
       </c>
-      <c r="CF53" s="4">
-        <v>400</v>
+      <c r="CF53" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:84" x14ac:dyDescent="0.25">
@@ -14828,7 +14830,7 @@
         <v>4.382470119521912</v>
       </c>
       <c r="BE54" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF54" s="4" t="s">
         <v>4</v>
@@ -14904,8 +14906,8 @@
       <c r="CE54" s="4">
         <v>420</v>
       </c>
-      <c r="CF54" s="4">
-        <v>480</v>
+      <c r="CF54" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:84" x14ac:dyDescent="0.25">
@@ -15088,7 +15090,7 @@
         <v>4.5936395759717312</v>
       </c>
       <c r="BE55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF55" s="4" t="s">
         <v>4</v>
@@ -15164,8 +15166,8 @@
       <c r="CE55" s="4">
         <v>400</v>
       </c>
-      <c r="CF55" s="4">
-        <v>460</v>
+      <c r="CF55" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:84" x14ac:dyDescent="0.25">
@@ -15348,7 +15350,7 @@
         <v>3.9808917197452227</v>
       </c>
       <c r="BE56" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF56" s="4" t="s">
         <v>4</v>
@@ -15424,8 +15426,8 @@
       <c r="CE56" s="4">
         <v>420</v>
       </c>
-      <c r="CF56" s="4">
-        <v>440</v>
+      <c r="CF56" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:84" x14ac:dyDescent="0.25">
@@ -15608,7 +15610,7 @@
         <v>5.2173913043478262</v>
       </c>
       <c r="BE57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF57" s="4" t="s">
         <v>4</v>
@@ -15684,8 +15686,8 @@
       <c r="CE57" s="4">
         <v>420</v>
       </c>
-      <c r="CF57" s="4">
-        <v>460</v>
+      <c r="CF57" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:84" x14ac:dyDescent="0.25">
@@ -15868,7 +15870,7 @@
         <v>4.615384615384615</v>
       </c>
       <c r="BE58" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF58" s="4" t="s">
         <v>4</v>
@@ -15944,8 +15946,8 @@
       <c r="CE58" s="4">
         <v>400</v>
       </c>
-      <c r="CF58" s="4">
-        <v>440</v>
+      <c r="CF58" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:84" x14ac:dyDescent="0.25">
@@ -16128,7 +16130,7 @@
         <v>5.1555555555555559</v>
       </c>
       <c r="BE59" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF59" s="4" t="s">
         <v>4</v>
@@ -16204,8 +16206,8 @@
       <c r="CE59" s="4">
         <v>450</v>
       </c>
-      <c r="CF59" s="4">
-        <v>500</v>
+      <c r="CF59" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:84" x14ac:dyDescent="0.25">
@@ -16388,7 +16390,7 @@
         <v>7.6271186440677967</v>
       </c>
       <c r="BE60" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF60" s="4" t="s">
         <v>5</v>
@@ -16464,8 +16466,8 @@
       <c r="CE60" s="4">
         <v>420</v>
       </c>
-      <c r="CF60" s="4">
-        <v>460</v>
+      <c r="CF60" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:84" x14ac:dyDescent="0.25">
@@ -16648,7 +16650,7 @@
         <v>5.8</v>
       </c>
       <c r="BE61" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF61" s="4" t="s">
         <v>4</v>
@@ -16724,8 +16726,8 @@
       <c r="CE61" s="4">
         <v>360</v>
       </c>
-      <c r="CF61" s="4">
-        <v>420</v>
+      <c r="CF61" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:84" x14ac:dyDescent="0.25">
@@ -16908,7 +16910,7 @@
         <v>5.608856088560886</v>
       </c>
       <c r="BE62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BF62" s="4" t="s">
         <v>5</v>
@@ -16984,8 +16986,8 @@
       <c r="CE62" s="4">
         <v>400</v>
       </c>
-      <c r="CF62" s="4">
-        <v>450</v>
+      <c r="CF62" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:84" x14ac:dyDescent="0.25">
@@ -17168,7 +17170,7 @@
         <v>4.3670886075949369</v>
       </c>
       <c r="BE63" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF63" s="4" t="s">
         <v>4</v>
@@ -17244,8 +17246,8 @@
       <c r="CE63" s="4">
         <v>400</v>
       </c>
-      <c r="CF63" s="4">
-        <v>500</v>
+      <c r="CF63" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:84" x14ac:dyDescent="0.25">
@@ -17428,7 +17430,7 @@
         <v>5.1724137931034484</v>
       </c>
       <c r="BE64" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF64" s="4" t="s">
         <v>5</v>
@@ -17504,8 +17506,8 @@
       <c r="CE64" s="4">
         <v>440</v>
       </c>
-      <c r="CF64" s="4">
-        <v>500</v>
+      <c r="CF64" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:84" x14ac:dyDescent="0.25">
@@ -17688,7 +17690,7 @@
         <v>5.1882845188284517</v>
       </c>
       <c r="BE65" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF65" s="4" t="s">
         <v>4</v>
@@ -17764,8 +17766,8 @@
       <c r="CE65" s="4">
         <v>390</v>
       </c>
-      <c r="CF65" s="4">
-        <v>470</v>
+      <c r="CF65" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:84" x14ac:dyDescent="0.25">
@@ -17852,7 +17854,6 @@
       <c r="CC66" s="2"/>
       <c r="CD66" s="2"/>
       <c r="CE66" s="2"/>
-      <c r="CF66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COVID_Training_Data.xlsx
+++ b/COVID_Training_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\TUSUR\Практика_Диплом\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\TUSUR\Практика_Диплом\Prediction_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CF1" sqref="CF1:CF1048576"/>
     </sheetView>
   </sheetViews>
@@ -1236,7 +1236,7 @@
         <v>300</v>
       </c>
       <c r="CF2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>300</v>
       </c>
       <c r="CF4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>300</v>
       </c>
       <c r="CF5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>320</v>
       </c>
       <c r="CF9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
         <v>280</v>
       </c>
       <c r="CF10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
@@ -3565,7 +3565,7 @@
         <v>320</v>
       </c>
       <c r="CF11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
         <v>220</v>
       </c>
       <c r="CF15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
@@ -5135,7 +5135,7 @@
         <v>400</v>
       </c>
       <c r="CF17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
@@ -5665,7 +5665,7 @@
         <v>365</v>
       </c>
       <c r="CF19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
@@ -6195,7 +6195,7 @@
         <v>328</v>
       </c>
       <c r="CF21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
@@ -6990,7 +6990,7 @@
         <v>250</v>
       </c>
       <c r="CF24" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
@@ -7785,7 +7785,7 @@
         <v>450</v>
       </c>
       <c r="CF27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
@@ -8315,7 +8315,7 @@
         <v>400</v>
       </c>
       <c r="CF29" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
@@ -8575,7 +8575,7 @@
         <v>400</v>
       </c>
       <c r="CF30" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
@@ -9101,7 +9101,7 @@
         <v>460</v>
       </c>
       <c r="CF32" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
@@ -11741,7 +11741,7 @@
         <v>400</v>
       </c>
       <c r="CF42" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
@@ -12006,7 +12006,7 @@
         <v>230</v>
       </c>
       <c r="CF43" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:84" x14ac:dyDescent="0.25">
@@ -12270,7 +12270,7 @@
         <v>380</v>
       </c>
       <c r="CF44" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
@@ -12534,7 +12534,7 @@
         <v>350</v>
       </c>
       <c r="CF45" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
@@ -12798,7 +12798,7 @@
         <v>380</v>
       </c>
       <c r="CF46" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
@@ -14383,7 +14383,7 @@
         <v>420</v>
       </c>
       <c r="CF52" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:84" x14ac:dyDescent="0.25">
@@ -14647,7 +14647,7 @@
         <v>360</v>
       </c>
       <c r="CF53" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:84" x14ac:dyDescent="0.25">
@@ -14907,7 +14907,7 @@
         <v>420</v>
       </c>
       <c r="CF54" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:84" x14ac:dyDescent="0.25">
@@ -15167,7 +15167,7 @@
         <v>400</v>
       </c>
       <c r="CF55" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:84" x14ac:dyDescent="0.25">
@@ -15427,7 +15427,7 @@
         <v>420</v>
       </c>
       <c r="CF56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:84" x14ac:dyDescent="0.25">
@@ -15687,7 +15687,7 @@
         <v>420</v>
       </c>
       <c r="CF57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:84" x14ac:dyDescent="0.25">
@@ -15947,7 +15947,7 @@
         <v>400</v>
       </c>
       <c r="CF58" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:84" x14ac:dyDescent="0.25">
@@ -16207,7 +16207,7 @@
         <v>450</v>
       </c>
       <c r="CF59" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:84" x14ac:dyDescent="0.25">
@@ -16467,7 +16467,7 @@
         <v>420</v>
       </c>
       <c r="CF60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:84" x14ac:dyDescent="0.25">
@@ -16987,7 +16987,7 @@
         <v>400</v>
       </c>
       <c r="CF62" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:84" x14ac:dyDescent="0.25">
@@ -17507,7 +17507,7 @@
         <v>440</v>
       </c>
       <c r="CF64" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:84" x14ac:dyDescent="0.25">
